--- a/Code/Results/Cases/Case_0_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_121/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.141633145731916</v>
+        <v>0.04856454963496049</v>
       </c>
       <c r="D2">
-        <v>0.09446491311415173</v>
+        <v>0.1511996330835572</v>
       </c>
       <c r="E2">
-        <v>0.07020046324347717</v>
+        <v>0.1364315755092314</v>
       </c>
       <c r="F2">
-        <v>0.8814883983998385</v>
+        <v>1.544159145771673</v>
       </c>
       <c r="G2">
-        <v>0.0007999779480492171</v>
+        <v>0.00246662241494966</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07179675245908967</v>
+        <v>0.1576926278446074</v>
       </c>
       <c r="K2">
-        <v>2.819307245335551</v>
+        <v>1.116889796214252</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6560469114691614</v>
+        <v>0.3924742335102991</v>
       </c>
       <c r="N2">
-        <v>0.8061998811928675</v>
+        <v>1.413550467732577</v>
       </c>
       <c r="O2">
-        <v>2.174706169098812</v>
+        <v>3.855768653390697</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1225438038184592</v>
+        <v>0.04316241441010504</v>
       </c>
       <c r="D3">
-        <v>0.08632309713006947</v>
+        <v>0.1496243054887003</v>
       </c>
       <c r="E3">
-        <v>0.06628313586983481</v>
+        <v>0.1362465658777374</v>
       </c>
       <c r="F3">
-        <v>0.8329354217723974</v>
+        <v>1.544578384392402</v>
       </c>
       <c r="G3">
-        <v>0.0008046658124661404</v>
+        <v>0.002469760370666819</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06974171080443625</v>
+        <v>0.1583497748499916</v>
       </c>
       <c r="K3">
-        <v>2.448869890605408</v>
+        <v>1.008479844026823</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5723398258118095</v>
+        <v>0.3698125674116568</v>
       </c>
       <c r="N3">
-        <v>0.8322285909580458</v>
+        <v>1.425553101108861</v>
       </c>
       <c r="O3">
-        <v>2.06558554555545</v>
+        <v>3.862406596950706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1109298905032574</v>
+        <v>0.03986008640386274</v>
       </c>
       <c r="D4">
-        <v>0.08139046656208393</v>
+        <v>0.1487056145324246</v>
       </c>
       <c r="E4">
-        <v>0.06396956899105533</v>
+        <v>0.1361899399102064</v>
       </c>
       <c r="F4">
-        <v>0.804921585511984</v>
+        <v>1.545732288601208</v>
       </c>
       <c r="G4">
-        <v>0.0008076382972564051</v>
+        <v>0.002471790567627382</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06861505671025014</v>
+        <v>0.1588294235726977</v>
       </c>
       <c r="K4">
-        <v>2.222071074390954</v>
+        <v>0.9420370253374131</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5212440753610466</v>
+        <v>0.3560254197317505</v>
       </c>
       <c r="N4">
-        <v>0.8492966408233897</v>
+        <v>1.433452495177939</v>
       </c>
       <c r="O4">
-        <v>2.003581738579754</v>
+        <v>3.868867740159089</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1062204104036368</v>
+        <v>0.03851801591821413</v>
       </c>
       <c r="D5">
-        <v>0.07939607390017756</v>
+        <v>0.1483435094232419</v>
       </c>
       <c r="E5">
-        <v>0.0630486559793475</v>
+        <v>0.1361812106161775</v>
       </c>
       <c r="F5">
-        <v>0.7939311748230793</v>
+        <v>1.54642783116266</v>
       </c>
       <c r="G5">
-        <v>0.0008088737620904896</v>
+        <v>0.002472643989194912</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0681882587391911</v>
+        <v>0.1590440345663069</v>
       </c>
       <c r="K5">
-        <v>2.129773730585242</v>
+        <v>0.9149929189295278</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5004874353233149</v>
+        <v>0.350439334071865</v>
       </c>
       <c r="N5">
-        <v>0.8565171344494047</v>
+        <v>1.436804868281136</v>
       </c>
       <c r="O5">
-        <v>1.979496101149323</v>
+        <v>3.872099937677945</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1054397087616934</v>
+        <v>0.03829538638122187</v>
       </c>
       <c r="D6">
-        <v>0.07906582565631481</v>
+        <v>0.1482841248221405</v>
       </c>
       <c r="E6">
-        <v>0.06289702775598904</v>
+        <v>0.136180628207283</v>
       </c>
       <c r="F6">
-        <v>0.7921311703042377</v>
+        <v>1.546556930834981</v>
       </c>
       <c r="G6">
-        <v>0.0008090803826743875</v>
+        <v>0.002472787278096024</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06811929454788057</v>
+        <v>0.1590808271830007</v>
       </c>
       <c r="K6">
-        <v>2.114454291758989</v>
+        <v>0.9105042317784182</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4970444645024941</v>
+        <v>0.3495137278925995</v>
       </c>
       <c r="N6">
-        <v>0.8577318786275967</v>
+        <v>1.437369581707863</v>
       </c>
       <c r="O6">
-        <v>1.975565937167886</v>
+        <v>3.872672816008361</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1108662871851038</v>
+        <v>0.03984197199430639</v>
       </c>
       <c r="D7">
-        <v>0.0813635072475023</v>
+        <v>0.1487006813034526</v>
       </c>
       <c r="E7">
-        <v>0.06395706213055163</v>
+        <v>0.1361897640690941</v>
       </c>
       <c r="F7">
-        <v>0.8047716764967987</v>
+        <v>1.54574075678228</v>
       </c>
       <c r="G7">
-        <v>0.0008076548607857986</v>
+        <v>0.00247180197139317</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06860917202214267</v>
+        <v>0.1588322403530498</v>
       </c>
       <c r="K7">
-        <v>2.220825863386665</v>
+        <v>0.9416721681508307</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5209638928864422</v>
+        <v>0.3559499526894143</v>
       </c>
       <c r="N7">
-        <v>0.8493929557223439</v>
+        <v>1.433497166568387</v>
       </c>
       <c r="O7">
-        <v>2.003252223942866</v>
+        <v>3.868908905258593</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1350266793027544</v>
+        <v>0.04669885002060425</v>
       </c>
       <c r="D8">
-        <v>0.09164318171800545</v>
+        <v>0.1506464132096568</v>
       </c>
       <c r="E8">
-        <v>0.06883001321134685</v>
+        <v>0.1363559718356342</v>
       </c>
       <c r="F8">
-        <v>0.8643576795552121</v>
+        <v>1.544117560426727</v>
       </c>
       <c r="G8">
-        <v>0.0008015750904267506</v>
+        <v>0.00246768295261603</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07105909518351439</v>
+        <v>0.1579034051910178</v>
       </c>
       <c r="K8">
-        <v>2.691421095180885</v>
+        <v>1.07948565033206</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6271158524703466</v>
+        <v>0.3846342623225993</v>
       </c>
       <c r="N8">
-        <v>0.8149441349557875</v>
+        <v>1.417579090365535</v>
       </c>
       <c r="O8">
-        <v>2.135997828191591</v>
+        <v>3.857561949122442</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1834300502926851</v>
+        <v>0.06026252603402327</v>
       </c>
       <c r="D9">
-        <v>0.112379198771464</v>
+        <v>0.1548451703329476</v>
       </c>
       <c r="E9">
-        <v>0.07916991370368365</v>
+        <v>0.1371332032796282</v>
       </c>
       <c r="F9">
-        <v>0.9967538452550571</v>
+        <v>1.548054924552886</v>
       </c>
       <c r="G9">
-        <v>0.0007903760811422991</v>
+        <v>0.00246042301832032</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.077015575486719</v>
+        <v>0.1566863644232903</v>
       </c>
       <c r="K9">
-        <v>3.621342500502465</v>
+        <v>1.350653619515867</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.838174096453173</v>
+        <v>0.441883296146969</v>
       </c>
       <c r="N9">
-        <v>0.756394473606349</v>
+        <v>1.39056258646017</v>
       </c>
       <c r="O9">
-        <v>2.439570081553313</v>
+        <v>3.85426979683038</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2198803906427145</v>
+        <v>0.07030233460730528</v>
       </c>
       <c r="D10">
-        <v>0.1280420509597207</v>
+        <v>0.1581611336089708</v>
       </c>
       <c r="E10">
-        <v>0.08732913012188703</v>
+        <v>0.1379786067399493</v>
       </c>
       <c r="F10">
-        <v>1.105418058864643</v>
+        <v>1.555301564897718</v>
       </c>
       <c r="G10">
-        <v>0.0007825544189618343</v>
+        <v>0.002455582420235667</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08221303839162886</v>
+        <v>0.1561609996018731</v>
       </c>
       <c r="K10">
-        <v>4.311810959114553</v>
+        <v>1.550396937049186</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9957765762801642</v>
+        <v>0.4845442672287348</v>
       </c>
       <c r="N10">
-        <v>0.7194380119443196</v>
+        <v>1.373267517510442</v>
       </c>
       <c r="O10">
-        <v>2.69436487944381</v>
+        <v>3.863460161107781</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2367188917398266</v>
+        <v>0.07488660156008109</v>
       </c>
       <c r="D11">
-        <v>0.1352787692863444</v>
+        <v>0.1597193494405929</v>
       </c>
       <c r="E11">
-        <v>0.09118339654120433</v>
+        <v>0.1384226381872367</v>
       </c>
       <c r="F11">
-        <v>1.157787412787854</v>
+        <v>1.559546679025416</v>
       </c>
       <c r="G11">
-        <v>0.0007790760835156335</v>
+        <v>0.002453486339505449</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08478439289636697</v>
+        <v>0.1560021644736764</v>
       </c>
       <c r="K11">
-        <v>4.628214340009663</v>
+        <v>1.641369773200267</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.068213021340924</v>
+        <v>0.5040805396450949</v>
       </c>
       <c r="N11">
-        <v>0.7040789948593158</v>
+        <v>1.365953015439302</v>
       </c>
       <c r="O11">
-        <v>2.818474168190932</v>
+        <v>3.87017340342237</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.243137828785251</v>
+        <v>0.07662503775046048</v>
       </c>
       <c r="D12">
-        <v>0.138036799238165</v>
+        <v>0.1603165115604526</v>
       </c>
       <c r="E12">
-        <v>0.0926652302591684</v>
+        <v>0.1385993144778155</v>
       </c>
       <c r="F12">
-        <v>1.178082463031558</v>
+        <v>1.561290790756402</v>
       </c>
       <c r="G12">
-        <v>0.0007777696677907197</v>
+        <v>0.002452707759632196</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08579044637907174</v>
+        <v>0.1559535490889701</v>
       </c>
       <c r="K12">
-        <v>4.748423603130789</v>
+        <v>1.675833339128133</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.095766352533843</v>
+        <v>0.5114968142977077</v>
       </c>
       <c r="N12">
-        <v>0.6984844046344563</v>
+        <v>1.363262674442886</v>
       </c>
       <c r="O12">
-        <v>2.866768407933193</v>
+        <v>3.873080523720006</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2417534089949385</v>
+        <v>0.07625052417468225</v>
       </c>
       <c r="D13">
-        <v>0.1374419968070839</v>
+        <v>0.1601875871607206</v>
       </c>
       <c r="E13">
-        <v>0.09234506857843883</v>
+        <v>0.1385608849362576</v>
       </c>
       <c r="F13">
-        <v>1.173690231103251</v>
+        <v>1.560909087910346</v>
       </c>
       <c r="G13">
-        <v>0.0007780505615327739</v>
+        <v>0.002452874767659003</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08557229343158212</v>
+        <v>0.1559635062996207</v>
       </c>
       <c r="K13">
-        <v>4.722515801400903</v>
+        <v>1.668410388910218</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.089826491907559</v>
+        <v>0.5098987775212223</v>
       </c>
       <c r="N13">
-        <v>0.6996792349342442</v>
+        <v>1.363838552119105</v>
       </c>
       <c r="O13">
-        <v>2.856307734821058</v>
+        <v>3.872438178987352</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2372460949037958</v>
+        <v>0.07502957409597855</v>
       </c>
       <c r="D14">
-        <v>0.1355053109314639</v>
+        <v>0.159768336366767</v>
       </c>
       <c r="E14">
-        <v>0.09130485001849209</v>
+        <v>0.1384370025768646</v>
       </c>
       <c r="F14">
-        <v>1.159447551521268</v>
+        <v>1.559687429896741</v>
       </c>
       <c r="G14">
-        <v>0.0007789683926116292</v>
+        <v>0.002453421981716334</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08486649798322077</v>
+        <v>0.1559979337043131</v>
       </c>
       <c r="K14">
-        <v>4.638095750689558</v>
+        <v>1.644204836889685</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.070477281546587</v>
+        <v>0.5046903158565854</v>
       </c>
       <c r="N14">
-        <v>0.7036142086931179</v>
+        <v>1.365730086301554</v>
       </c>
       <c r="O14">
-        <v>2.822420669339323</v>
+        <v>3.870405255057847</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2344909513851121</v>
+        <v>0.07428202948011631</v>
       </c>
       <c r="D15">
-        <v>0.134321381801314</v>
+        <v>0.1595124560423784</v>
       </c>
       <c r="E15">
-        <v>0.0906706469381966</v>
+        <v>0.1383622315362771</v>
       </c>
       <c r="F15">
-        <v>1.150785203375776</v>
+        <v>1.558956920910816</v>
       </c>
       <c r="G15">
-        <v>0.000779531969066129</v>
+        <v>0.002453759138498163</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08443846892499351</v>
+        <v>0.1560205234655143</v>
       </c>
       <c r="K15">
-        <v>4.586439315166899</v>
+        <v>1.629380033039752</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.058641891530065</v>
+        <v>0.5015023579713613</v>
       </c>
       <c r="N15">
-        <v>0.706053736390146</v>
+        <v>1.366899058210699</v>
       </c>
       <c r="O15">
-        <v>2.801836383503002</v>
+        <v>3.869207582667315</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.218785596235179</v>
+        <v>0.07000308741237404</v>
       </c>
       <c r="D16">
-        <v>0.1275714935650996</v>
+        <v>0.1580602971200875</v>
       </c>
       <c r="E16">
-        <v>0.08708026503234834</v>
+        <v>0.1379507830430988</v>
       </c>
       <c r="F16">
-        <v>1.102058180667314</v>
+        <v>1.555043239468546</v>
       </c>
       <c r="G16">
-        <v>0.000782783281562235</v>
+        <v>0.002455721529523753</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08204937493761832</v>
+        <v>0.1561729932790783</v>
       </c>
       <c r="K16">
-        <v>4.291184881754816</v>
+        <v>1.544453706121828</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.991058998539998</v>
+        <v>0.4832701059029674</v>
       </c>
       <c r="N16">
-        <v>0.7204720499557951</v>
+        <v>1.373756664351802</v>
       </c>
       <c r="O16">
-        <v>2.6864289026542</v>
+        <v>3.863072462849544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.209220555168443</v>
+        <v>0.06738248660241197</v>
       </c>
       <c r="D17">
-        <v>0.1234603358338404</v>
+        <v>0.1571821507539681</v>
       </c>
       <c r="E17">
-        <v>0.08491544355884173</v>
+        <v>0.1377135872131809</v>
       </c>
       <c r="F17">
-        <v>1.072946587894535</v>
+        <v>1.552885400861399</v>
       </c>
       <c r="G17">
-        <v>0.0007847977954365896</v>
+        <v>0.002456952472582799</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0806385281368236</v>
+        <v>0.1562870624559309</v>
       </c>
       <c r="K17">
-        <v>4.110689290081552</v>
+        <v>1.492380908791063</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9498004981993518</v>
+        <v>0.4721181698864569</v>
       </c>
       <c r="N17">
-        <v>0.7296979741254646</v>
+        <v>1.378105222280148</v>
       </c>
       <c r="O17">
-        <v>2.617811383749654</v>
+        <v>3.859957961457695</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2037428319866308</v>
+        <v>0.06587679578915129</v>
       </c>
       <c r="D18">
-        <v>0.1211061092510874</v>
+        <v>0.1566817519335899</v>
       </c>
       <c r="E18">
-        <v>0.0836836017743785</v>
+        <v>0.1375827555350178</v>
       </c>
       <c r="F18">
-        <v>1.056476182833237</v>
+        <v>1.551733543629538</v>
       </c>
       <c r="G18">
-        <v>0.0007859640456015</v>
+        <v>0.002457670453464643</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07984636507534049</v>
+        <v>0.1563602163406372</v>
       </c>
       <c r="K18">
-        <v>4.007085978036912</v>
+        <v>1.462440323563669</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9261385018214838</v>
+        <v>0.4657160873337745</v>
       </c>
       <c r="N18">
-        <v>0.7351404001101045</v>
+        <v>1.380658460943103</v>
       </c>
       <c r="O18">
-        <v>2.579108835464382</v>
+        <v>3.858404906029989</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2018920992926638</v>
+        <v>0.06536727075241799</v>
       </c>
       <c r="D19">
-        <v>0.1203107487169177</v>
+        <v>0.1565131323521456</v>
       </c>
       <c r="E19">
-        <v>0.08326875401419542</v>
+        <v>0.1375394200343685</v>
       </c>
       <c r="F19">
-        <v>1.050945403025082</v>
+        <v>1.551358872242588</v>
       </c>
       <c r="G19">
-        <v>0.0007863602364574927</v>
+        <v>0.002457915264928114</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07958139518833462</v>
+        <v>0.1563862805597935</v>
       </c>
       <c r="K19">
-        <v>3.972042435438823</v>
+        <v>1.452304772168532</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9181382932342288</v>
+        <v>0.4635505601257464</v>
       </c>
       <c r="N19">
-        <v>0.7370060865728902</v>
+        <v>1.381531886735139</v>
       </c>
       <c r="O19">
-        <v>2.566132687411425</v>
+        <v>3.857919976375882</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2102362640800806</v>
+        <v>0.06766128736050803</v>
       </c>
       <c r="D20">
-        <v>0.1238968878199955</v>
+        <v>0.1572751461829967</v>
       </c>
       <c r="E20">
-        <v>0.08514450274143925</v>
+        <v>0.1377382579677864</v>
       </c>
       <c r="F20">
-        <v>1.076016937869895</v>
+        <v>1.553105865628922</v>
       </c>
       <c r="G20">
-        <v>0.0007845825700485612</v>
+        <v>0.002456820404501738</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08078669779121839</v>
+        <v>0.1562741387487634</v>
       </c>
       <c r="K20">
-        <v>4.12988087513304</v>
+        <v>1.497923090667086</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9541853002592973</v>
+        <v>0.4733040505272328</v>
       </c>
       <c r="N20">
-        <v>0.728701703202006</v>
+        <v>1.377636922789328</v>
       </c>
       <c r="O20">
-        <v>2.625035899940912</v>
+        <v>3.860264834137382</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2385688003747077</v>
+        <v>0.07538812948507712</v>
       </c>
       <c r="D21">
-        <v>0.1360736704077539</v>
+        <v>0.1598912882584358</v>
       </c>
       <c r="E21">
-        <v>0.09160976697834755</v>
+        <v>0.1384731584375984</v>
       </c>
       <c r="F21">
-        <v>1.163618033758866</v>
+        <v>1.560042552356933</v>
       </c>
       <c r="G21">
-        <v>0.0007786985174831811</v>
+        <v>0.002453260840907692</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08507290809001944</v>
+        <v>0.1559875085190399</v>
       </c>
       <c r="K21">
-        <v>4.662880742313121</v>
+        <v>1.651314222699853</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.076157131159853</v>
+        <v>0.5062196728693564</v>
       </c>
       <c r="N21">
-        <v>0.7024522934084487</v>
+        <v>1.365172339440633</v>
       </c>
       <c r="O21">
-        <v>2.832337945773958</v>
+        <v>3.87099246284123</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2573367594052485</v>
+        <v>0.08045249274363186</v>
       </c>
       <c r="D22">
-        <v>0.1441355631358618</v>
+        <v>0.1616424439915534</v>
       </c>
       <c r="E22">
-        <v>0.09596615001197861</v>
+        <v>0.139003176523584</v>
       </c>
       <c r="F22">
-        <v>1.223596197751533</v>
+        <v>1.565372247326067</v>
       </c>
       <c r="G22">
-        <v>0.0007749152616992291</v>
+        <v>0.002451022793406382</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08806402407653025</v>
+        <v>0.1558673993293169</v>
       </c>
       <c r="K22">
-        <v>5.013557557553554</v>
+        <v>1.751645852063518</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.156599681667657</v>
+        <v>0.5278385244341877</v>
       </c>
       <c r="N22">
-        <v>0.6865946615425074</v>
+        <v>1.357489401369641</v>
       </c>
       <c r="O22">
-        <v>2.975441781152057</v>
+        <v>3.880131229602597</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2472950119789914</v>
+        <v>0.07774822239915125</v>
       </c>
       <c r="D23">
-        <v>0.1398227346295471</v>
+        <v>0.1607040539225579</v>
       </c>
       <c r="E23">
-        <v>0.09362845139043685</v>
+        <v>0.1387157526306986</v>
       </c>
       <c r="F23">
-        <v>1.191320703256636</v>
+        <v>1.562454781491866</v>
       </c>
       <c r="G23">
-        <v>0.0007769290062833801</v>
+        <v>0.00245220922277779</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08644933628441009</v>
+        <v>0.1559253512939804</v>
       </c>
       <c r="K23">
-        <v>4.826159360805036</v>
+        <v>1.698089992150415</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.113593649277803</v>
+        <v>0.5162904894820173</v>
       </c>
       <c r="N23">
-        <v>0.6949349830277498</v>
+        <v>1.361547539923102</v>
       </c>
       <c r="O23">
-        <v>2.898326022338892</v>
+        <v>3.875058756656841</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2097769960100067</v>
+        <v>0.06753523865164368</v>
       </c>
       <c r="D24">
-        <v>0.1236994937165008</v>
+        <v>0.1572330890563336</v>
       </c>
       <c r="E24">
-        <v>0.08504090552817445</v>
+        <v>0.1377270870764704</v>
       </c>
       <c r="F24">
-        <v>1.074628006474029</v>
+        <v>1.553005917180968</v>
       </c>
       <c r="G24">
-        <v>0.0007846798482166227</v>
+        <v>0.002456880080552838</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08071965145249749</v>
+        <v>0.1562799579649266</v>
       </c>
       <c r="K24">
-        <v>4.121203847119091</v>
+        <v>1.495417480222727</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9522027516172926</v>
+        <v>0.4727678848534325</v>
       </c>
       <c r="N24">
-        <v>0.7291516873974615</v>
+        <v>1.37784847528264</v>
       </c>
       <c r="O24">
-        <v>2.621767379504774</v>
+        <v>3.860125357204453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1701998302528978</v>
+        <v>0.05658031382823481</v>
       </c>
       <c r="D25">
-        <v>0.1067001997752755</v>
+        <v>0.1536685282590255</v>
       </c>
       <c r="E25">
-        <v>0.076280384518018</v>
+        <v>0.1368747051036685</v>
       </c>
       <c r="F25">
-        <v>0.9590833270216592</v>
+        <v>1.546226125759958</v>
       </c>
       <c r="G25">
-        <v>0.0007933317210217718</v>
+        <v>0.002462300034673941</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07526907748548339</v>
+        <v>0.1569508666215853</v>
       </c>
       <c r="K25">
-        <v>3.368726232654126</v>
+        <v>1.277201814083924</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7806910416206776</v>
+        <v>0.4262898832614326</v>
       </c>
       <c r="N25">
-        <v>0.7712133769483174</v>
+        <v>1.397422373336781</v>
       </c>
       <c r="O25">
-        <v>2.352281933586113</v>
+        <v>3.853125429896664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_121/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04856454963496049</v>
+        <v>0.141633145732257</v>
       </c>
       <c r="D2">
-        <v>0.1511996330835572</v>
+        <v>0.09446491311414462</v>
       </c>
       <c r="E2">
-        <v>0.1364315755092314</v>
+        <v>0.07020046324345941</v>
       </c>
       <c r="F2">
-        <v>1.544159145771673</v>
+        <v>0.8814883983998385</v>
       </c>
       <c r="G2">
-        <v>0.00246662241494966</v>
+        <v>0.0007999779480487491</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1576926278446074</v>
+        <v>0.07179675245913941</v>
       </c>
       <c r="K2">
-        <v>1.116889796214252</v>
+        <v>2.819307245335523</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3924742335102991</v>
+        <v>0.6560469114691401</v>
       </c>
       <c r="N2">
-        <v>1.413550467732577</v>
+        <v>0.8061998811928675</v>
       </c>
       <c r="O2">
-        <v>3.855768653390697</v>
+        <v>2.174706169098812</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04316241441010504</v>
+        <v>0.1225438038184734</v>
       </c>
       <c r="D3">
-        <v>0.1496243054887003</v>
+        <v>0.08632309713006237</v>
       </c>
       <c r="E3">
-        <v>0.1362465658777374</v>
+        <v>0.06628313586981704</v>
       </c>
       <c r="F3">
-        <v>1.544578384392402</v>
+        <v>0.8329354217724116</v>
       </c>
       <c r="G3">
-        <v>0.002469760370666819</v>
+        <v>0.000804665812437022</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1583497748499916</v>
+        <v>0.06974171080437941</v>
       </c>
       <c r="K3">
-        <v>1.008479844026823</v>
+        <v>2.448869890605351</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3698125674116568</v>
+        <v>0.5723398258118095</v>
       </c>
       <c r="N3">
-        <v>1.425553101108861</v>
+        <v>0.8322285909580529</v>
       </c>
       <c r="O3">
-        <v>3.862406596950706</v>
+        <v>2.06558554555545</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03986008640386274</v>
+        <v>0.1109298905032432</v>
       </c>
       <c r="D4">
-        <v>0.1487056145324246</v>
+        <v>0.08139046656208393</v>
       </c>
       <c r="E4">
-        <v>0.1361899399102064</v>
+        <v>0.06396956899107664</v>
       </c>
       <c r="F4">
-        <v>1.545732288601208</v>
+        <v>0.804921585511984</v>
       </c>
       <c r="G4">
-        <v>0.002471790567627382</v>
+        <v>0.0008076382972856667</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1588294235726977</v>
+        <v>0.0686150567102537</v>
       </c>
       <c r="K4">
-        <v>0.9420370253374131</v>
+        <v>2.222071074390982</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3560254197317505</v>
+        <v>0.5212440753610394</v>
       </c>
       <c r="N4">
-        <v>1.433452495177939</v>
+        <v>0.8492966408233897</v>
       </c>
       <c r="O4">
-        <v>3.868867740159089</v>
+        <v>2.003581738579811</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03851801591821413</v>
+        <v>0.1062204104033952</v>
       </c>
       <c r="D5">
-        <v>0.1483435094232419</v>
+        <v>0.07939607390006387</v>
       </c>
       <c r="E5">
-        <v>0.1361812106161775</v>
+        <v>0.06304865597935283</v>
       </c>
       <c r="F5">
-        <v>1.54642783116266</v>
+        <v>0.7939311748230438</v>
       </c>
       <c r="G5">
-        <v>0.002472643989194912</v>
+        <v>0.0008088737620622899</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1590440345663069</v>
+        <v>0.06818825873917689</v>
       </c>
       <c r="K5">
-        <v>0.9149929189295278</v>
+        <v>2.129773730585157</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.350439334071865</v>
+        <v>0.5004874353233149</v>
       </c>
       <c r="N5">
-        <v>1.436804868281136</v>
+        <v>0.8565171344494047</v>
       </c>
       <c r="O5">
-        <v>3.872099937677945</v>
+        <v>1.979496101149323</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03829538638122187</v>
+        <v>0.105439708761466</v>
       </c>
       <c r="D6">
-        <v>0.1482841248221405</v>
+        <v>0.07906582565613007</v>
       </c>
       <c r="E6">
-        <v>0.136180628207283</v>
+        <v>0.06289702775597306</v>
       </c>
       <c r="F6">
-        <v>1.546556930834981</v>
+        <v>0.7921311703042093</v>
       </c>
       <c r="G6">
-        <v>0.002472787278096024</v>
+        <v>0.0008090803826787432</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1590808271830007</v>
+        <v>0.06811929454786636</v>
       </c>
       <c r="K6">
-        <v>0.9105042317784182</v>
+        <v>2.114454291759017</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3495137278925995</v>
+        <v>0.4970444645024941</v>
       </c>
       <c r="N6">
-        <v>1.437369581707863</v>
+        <v>0.8577318786275683</v>
       </c>
       <c r="O6">
-        <v>3.872672816008361</v>
+        <v>1.975565937167858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03984197199430639</v>
+        <v>0.1108662871852317</v>
       </c>
       <c r="D7">
-        <v>0.1487006813034526</v>
+        <v>0.08136350724757335</v>
       </c>
       <c r="E7">
-        <v>0.1361897640690941</v>
+        <v>0.06395706213055163</v>
       </c>
       <c r="F7">
-        <v>1.54574075678228</v>
+        <v>0.8047716764968129</v>
       </c>
       <c r="G7">
-        <v>0.00247180197139317</v>
+        <v>0.0008076548607861872</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1588322403530498</v>
+        <v>0.0686091720221178</v>
       </c>
       <c r="K7">
-        <v>0.9416721681508307</v>
+        <v>2.220825863386551</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3559499526894143</v>
+        <v>0.5209638928864422</v>
       </c>
       <c r="N7">
-        <v>1.433497166568387</v>
+        <v>0.8493929557223581</v>
       </c>
       <c r="O7">
-        <v>3.868908905258593</v>
+        <v>2.003252223942866</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04669885002060425</v>
+        <v>0.135026679302868</v>
       </c>
       <c r="D8">
-        <v>0.1506464132096568</v>
+        <v>0.09164318171801256</v>
       </c>
       <c r="E8">
-        <v>0.1363559718356342</v>
+        <v>0.0688300132113504</v>
       </c>
       <c r="F8">
-        <v>1.544117560426727</v>
+        <v>0.8643576795552264</v>
       </c>
       <c r="G8">
-        <v>0.00246768295261603</v>
+        <v>0.0008015750904540146</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1579034051910178</v>
+        <v>0.07105909518358189</v>
       </c>
       <c r="K8">
-        <v>1.07948565033206</v>
+        <v>2.691421095180914</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3846342623225993</v>
+        <v>0.6271158524703608</v>
       </c>
       <c r="N8">
-        <v>1.417579090365535</v>
+        <v>0.8149441349557875</v>
       </c>
       <c r="O8">
-        <v>3.857561949122442</v>
+        <v>2.13599782819162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06026252603402327</v>
+        <v>0.1834300502924577</v>
       </c>
       <c r="D9">
-        <v>0.1548451703329476</v>
+        <v>0.112379198771464</v>
       </c>
       <c r="E9">
-        <v>0.1371332032796282</v>
+        <v>0.07916991370369431</v>
       </c>
       <c r="F9">
-        <v>1.548054924552886</v>
+        <v>0.9967538452550571</v>
       </c>
       <c r="G9">
-        <v>0.00246042301832032</v>
+        <v>0.0007903760811121122</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1566863644232903</v>
+        <v>0.07701557548683269</v>
       </c>
       <c r="K9">
-        <v>1.350653619515867</v>
+        <v>3.621342500502465</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.441883296146969</v>
+        <v>0.838174096453173</v>
       </c>
       <c r="N9">
-        <v>1.39056258646017</v>
+        <v>0.7563944736063988</v>
       </c>
       <c r="O9">
-        <v>3.85426979683038</v>
+        <v>2.439570081553342</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07030233460730528</v>
+        <v>0.2198803906428282</v>
       </c>
       <c r="D10">
-        <v>0.1581611336089708</v>
+        <v>0.1280420509597917</v>
       </c>
       <c r="E10">
-        <v>0.1379786067399493</v>
+        <v>0.08732913012189059</v>
       </c>
       <c r="F10">
-        <v>1.555301564897718</v>
+        <v>1.105418058864657</v>
       </c>
       <c r="G10">
-        <v>0.002455582420235667</v>
+        <v>0.0007825544189619795</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1561609996018731</v>
+        <v>0.08221303839147964</v>
       </c>
       <c r="K10">
-        <v>1.550396937049186</v>
+        <v>4.311810959114439</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4845442672287348</v>
+        <v>0.9957765762802069</v>
       </c>
       <c r="N10">
-        <v>1.373267517510442</v>
+        <v>0.7194380119443196</v>
       </c>
       <c r="O10">
-        <v>3.863460161107781</v>
+        <v>2.694364879443725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07488660156008109</v>
+        <v>0.2367188917399545</v>
       </c>
       <c r="D11">
-        <v>0.1597193494405929</v>
+        <v>0.1352787692863586</v>
       </c>
       <c r="E11">
-        <v>0.1384226381872367</v>
+        <v>0.09118339654121144</v>
       </c>
       <c r="F11">
-        <v>1.559546679025416</v>
+        <v>1.157787412787854</v>
       </c>
       <c r="G11">
-        <v>0.002453486339505449</v>
+        <v>0.0007790760834868955</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1560021644736764</v>
+        <v>0.08478439289638828</v>
       </c>
       <c r="K11">
-        <v>1.641369773200267</v>
+        <v>4.628214340009777</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5040805396450949</v>
+        <v>1.068213021340924</v>
       </c>
       <c r="N11">
-        <v>1.365953015439302</v>
+        <v>0.7040789948593229</v>
       </c>
       <c r="O11">
-        <v>3.87017340342237</v>
+        <v>2.818474168191017</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07662503775046048</v>
+        <v>0.2431378287851231</v>
       </c>
       <c r="D12">
-        <v>0.1603165115604526</v>
+        <v>0.1380367992379945</v>
       </c>
       <c r="E12">
-        <v>0.1385993144778155</v>
+        <v>0.0926652302591684</v>
       </c>
       <c r="F12">
-        <v>1.561290790756402</v>
+        <v>1.178082463031558</v>
       </c>
       <c r="G12">
-        <v>0.002452707759632196</v>
+        <v>0.000777769667856598</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1559535490889701</v>
+        <v>0.08579044637910016</v>
       </c>
       <c r="K12">
-        <v>1.675833339128133</v>
+        <v>4.748423603130959</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5114968142977077</v>
+        <v>1.095766352533829</v>
       </c>
       <c r="N12">
-        <v>1.363262674442886</v>
+        <v>0.6984844046344492</v>
       </c>
       <c r="O12">
-        <v>3.873080523720006</v>
+        <v>2.866768407933193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07625052417468225</v>
+        <v>0.2417534089950379</v>
       </c>
       <c r="D13">
-        <v>0.1601875871607206</v>
+        <v>0.1374419968066718</v>
       </c>
       <c r="E13">
-        <v>0.1385608849362576</v>
+        <v>0.09234506857843172</v>
       </c>
       <c r="F13">
-        <v>1.560909087910346</v>
+        <v>1.173690231103251</v>
       </c>
       <c r="G13">
-        <v>0.002452874767659003</v>
+        <v>0.000778050561503798</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1559635062996207</v>
+        <v>0.08557229343158212</v>
       </c>
       <c r="K13">
-        <v>1.668410388910218</v>
+        <v>4.722515801400846</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5098987775212223</v>
+        <v>1.089826491907559</v>
       </c>
       <c r="N13">
-        <v>1.363838552119105</v>
+        <v>0.6996792349341945</v>
       </c>
       <c r="O13">
-        <v>3.872438178987352</v>
+        <v>2.856307734821087</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07502957409597855</v>
+        <v>0.2372460949036679</v>
       </c>
       <c r="D14">
-        <v>0.159768336366767</v>
+        <v>0.1355053109312934</v>
       </c>
       <c r="E14">
-        <v>0.1384370025768646</v>
+        <v>0.09130485001847788</v>
       </c>
       <c r="F14">
-        <v>1.559687429896741</v>
+        <v>1.159447551521268</v>
       </c>
       <c r="G14">
-        <v>0.002453421981716334</v>
+        <v>0.0007789683926129338</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1559979337043131</v>
+        <v>0.0848664979831355</v>
       </c>
       <c r="K14">
-        <v>1.644204836889685</v>
+        <v>4.638095750689672</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5046903158565854</v>
+        <v>1.070477281546601</v>
       </c>
       <c r="N14">
-        <v>1.365730086301554</v>
+        <v>0.703614208693125</v>
       </c>
       <c r="O14">
-        <v>3.870405255057847</v>
+        <v>2.822420669339436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07428202948011631</v>
+        <v>0.2344909513848421</v>
       </c>
       <c r="D15">
-        <v>0.1595124560423784</v>
+        <v>0.1343213818013709</v>
       </c>
       <c r="E15">
-        <v>0.1383622315362771</v>
+        <v>0.09067064693822857</v>
       </c>
       <c r="F15">
-        <v>1.558956920910816</v>
+        <v>1.150785203375776</v>
       </c>
       <c r="G15">
-        <v>0.002453759138498163</v>
+        <v>0.0007795319690709412</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1560205234655143</v>
+        <v>0.08443846892504325</v>
       </c>
       <c r="K15">
-        <v>1.629380033039752</v>
+        <v>4.586439315166956</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5015023579713613</v>
+        <v>1.05864189153008</v>
       </c>
       <c r="N15">
-        <v>1.366899058210699</v>
+        <v>0.706053736390075</v>
       </c>
       <c r="O15">
-        <v>3.869207582667315</v>
+        <v>2.801836383502888</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07000308741237404</v>
+        <v>0.218785596235179</v>
       </c>
       <c r="D16">
-        <v>0.1580602971200875</v>
+        <v>0.1275714935652132</v>
       </c>
       <c r="E16">
-        <v>0.1379507830430988</v>
+        <v>0.08708026503234834</v>
       </c>
       <c r="F16">
-        <v>1.555043239468546</v>
+        <v>1.102058180667314</v>
       </c>
       <c r="G16">
-        <v>0.002455721529523753</v>
+        <v>0.000782783281562465</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1561729932790783</v>
+        <v>0.08204937493761832</v>
       </c>
       <c r="K16">
-        <v>1.544453706121828</v>
+        <v>4.291184881754759</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4832701059029674</v>
+        <v>0.991058998539998</v>
       </c>
       <c r="N16">
-        <v>1.373756664351802</v>
+        <v>0.7204720499557453</v>
       </c>
       <c r="O16">
-        <v>3.863072462849544</v>
+        <v>2.686428902654256</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06738248660241197</v>
+        <v>0.2092205551683435</v>
       </c>
       <c r="D17">
-        <v>0.1571821507539681</v>
+        <v>0.1234603358337694</v>
       </c>
       <c r="E17">
-        <v>0.1377135872131809</v>
+        <v>0.08491544355885594</v>
       </c>
       <c r="F17">
-        <v>1.552885400861399</v>
+        <v>1.072946587894535</v>
       </c>
       <c r="G17">
-        <v>0.002456952472582799</v>
+        <v>0.000784797795436215</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1562870624559309</v>
+        <v>0.08063852813681649</v>
       </c>
       <c r="K17">
-        <v>1.492380908791063</v>
+        <v>4.110689290081666</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4721181698864569</v>
+        <v>0.9498004981993446</v>
       </c>
       <c r="N17">
-        <v>1.378105222280148</v>
+        <v>0.7296979741254646</v>
       </c>
       <c r="O17">
-        <v>3.859957961457695</v>
+        <v>2.617811383749768</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06587679578915129</v>
+        <v>0.2037428319866166</v>
       </c>
       <c r="D18">
-        <v>0.1566817519335899</v>
+        <v>0.1211061092512011</v>
       </c>
       <c r="E18">
-        <v>0.1375827555350178</v>
+        <v>0.0836836017743785</v>
       </c>
       <c r="F18">
-        <v>1.551733543629538</v>
+        <v>1.056476182833251</v>
       </c>
       <c r="G18">
-        <v>0.002457670453464643</v>
+        <v>0.0007859640456016645</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1563602163406372</v>
+        <v>0.07984636507537601</v>
       </c>
       <c r="K18">
-        <v>1.462440323563669</v>
+        <v>4.007085978036855</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4657160873337745</v>
+        <v>0.9261385018214696</v>
       </c>
       <c r="N18">
-        <v>1.380658460943103</v>
+        <v>0.7351404001101116</v>
       </c>
       <c r="O18">
-        <v>3.858404906029989</v>
+        <v>2.579108835464439</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06536727075241799</v>
+        <v>0.2018920992927917</v>
       </c>
       <c r="D19">
-        <v>0.1565131323521456</v>
+        <v>0.1203107487170314</v>
       </c>
       <c r="E19">
-        <v>0.1375394200343685</v>
+        <v>0.08326875401417766</v>
       </c>
       <c r="F19">
-        <v>1.551358872242588</v>
+        <v>1.050945403025068</v>
       </c>
       <c r="G19">
-        <v>0.002457915264928114</v>
+        <v>0.0007863602364870029</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1563862805597935</v>
+        <v>0.0795813951882991</v>
       </c>
       <c r="K19">
-        <v>1.452304772168532</v>
+        <v>3.972042435438823</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4635505601257464</v>
+        <v>0.918138293234243</v>
       </c>
       <c r="N19">
-        <v>1.381531886735139</v>
+        <v>0.7370060865728902</v>
       </c>
       <c r="O19">
-        <v>3.857919976375882</v>
+        <v>2.566132687411397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06766128736050803</v>
+        <v>0.2102362640802085</v>
       </c>
       <c r="D20">
-        <v>0.1572751461829967</v>
+        <v>0.1238968878198818</v>
       </c>
       <c r="E20">
-        <v>0.1377382579677864</v>
+        <v>0.08514450274145702</v>
       </c>
       <c r="F20">
-        <v>1.553105865628922</v>
+        <v>1.076016937869895</v>
       </c>
       <c r="G20">
-        <v>0.002456820404501738</v>
+        <v>0.0007845825701082371</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1562741387487634</v>
+        <v>0.08078669779111181</v>
       </c>
       <c r="K20">
-        <v>1.497923090667086</v>
+        <v>4.129880875133097</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4733040505272328</v>
+        <v>0.9541853002592688</v>
       </c>
       <c r="N20">
-        <v>1.377636922789328</v>
+        <v>0.728701703202006</v>
       </c>
       <c r="O20">
-        <v>3.860264834137382</v>
+        <v>2.625035899940968</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07538812948507712</v>
+        <v>0.2385688003748641</v>
       </c>
       <c r="D21">
-        <v>0.1598912882584358</v>
+        <v>0.1360736704078391</v>
       </c>
       <c r="E21">
-        <v>0.1384731584375984</v>
+        <v>0.09160976697837953</v>
       </c>
       <c r="F21">
-        <v>1.560042552356933</v>
+        <v>1.16361803375888</v>
       </c>
       <c r="G21">
-        <v>0.002453260840907692</v>
+        <v>0.0007786985175157235</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1559875085190399</v>
+        <v>0.08507290809005497</v>
       </c>
       <c r="K21">
-        <v>1.651314222699853</v>
+        <v>4.662880742313064</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5062196728693564</v>
+        <v>1.076157131159881</v>
       </c>
       <c r="N21">
-        <v>1.365172339440633</v>
+        <v>0.7024522934083848</v>
       </c>
       <c r="O21">
-        <v>3.87099246284123</v>
+        <v>2.832337945773986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08045249274363186</v>
+        <v>0.2573367594052627</v>
       </c>
       <c r="D22">
-        <v>0.1616424439915534</v>
+        <v>0.1441355631358476</v>
       </c>
       <c r="E22">
-        <v>0.139003176523584</v>
+        <v>0.0959661500119644</v>
       </c>
       <c r="F22">
-        <v>1.565372247326067</v>
+        <v>1.223596197751519</v>
       </c>
       <c r="G22">
-        <v>0.002451022793406382</v>
+        <v>0.0007749152616026014</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1558673993293169</v>
+        <v>0.08806402407642366</v>
       </c>
       <c r="K22">
-        <v>1.751645852063518</v>
+        <v>5.013557557553497</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5278385244341877</v>
+        <v>1.156599681667672</v>
       </c>
       <c r="N22">
-        <v>1.357489401369641</v>
+        <v>0.6865946615425074</v>
       </c>
       <c r="O22">
-        <v>3.880131229602597</v>
+        <v>2.975441781152057</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07774822239915125</v>
+        <v>0.2472950119789914</v>
       </c>
       <c r="D23">
-        <v>0.1607040539225579</v>
+        <v>0.1398227346297745</v>
       </c>
       <c r="E23">
-        <v>0.1387157526306986</v>
+        <v>0.09362845139043685</v>
       </c>
       <c r="F23">
-        <v>1.562454781491866</v>
+        <v>1.19132070325665</v>
       </c>
       <c r="G23">
-        <v>0.00245220922277779</v>
+        <v>0.0007769290062833273</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1559253512939804</v>
+        <v>0.08644933628430351</v>
       </c>
       <c r="K23">
-        <v>1.698089992150415</v>
+        <v>4.826159360805036</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5162904894820173</v>
+        <v>1.11359364927781</v>
       </c>
       <c r="N23">
-        <v>1.361547539923102</v>
+        <v>0.6949349830277427</v>
       </c>
       <c r="O23">
-        <v>3.875058756656841</v>
+        <v>2.898326022338892</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06753523865164368</v>
+        <v>0.2097769960098645</v>
       </c>
       <c r="D24">
-        <v>0.1572330890563336</v>
+        <v>0.1236994937165008</v>
       </c>
       <c r="E24">
-        <v>0.1377270870764704</v>
+        <v>0.08504090552816379</v>
       </c>
       <c r="F24">
-        <v>1.553005917180968</v>
+        <v>1.074628006474029</v>
       </c>
       <c r="G24">
-        <v>0.002456880080552838</v>
+        <v>0.0007846798482449597</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1562799579649266</v>
+        <v>0.08071965145249038</v>
       </c>
       <c r="K24">
-        <v>1.495417480222727</v>
+        <v>4.121203847119034</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4727678848534325</v>
+        <v>0.9522027516172997</v>
       </c>
       <c r="N24">
-        <v>1.37784847528264</v>
+        <v>0.7291516873973833</v>
       </c>
       <c r="O24">
-        <v>3.860125357204453</v>
+        <v>2.621767379504746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05658031382823481</v>
+        <v>0.1701998302527556</v>
       </c>
       <c r="D25">
-        <v>0.1536685282590255</v>
+        <v>0.1067001997750978</v>
       </c>
       <c r="E25">
-        <v>0.1368747051036685</v>
+        <v>0.07628038451802155</v>
       </c>
       <c r="F25">
-        <v>1.546226125759958</v>
+        <v>0.9590833270216734</v>
       </c>
       <c r="G25">
-        <v>0.002462300034673941</v>
+        <v>0.0007933317210208789</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1569508666215853</v>
+        <v>0.07526907748551181</v>
       </c>
       <c r="K25">
-        <v>1.277201814083924</v>
+        <v>3.368726232654126</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4262898832614326</v>
+        <v>0.7806910416206918</v>
       </c>
       <c r="N25">
-        <v>1.397422373336781</v>
+        <v>0.7712133769482534</v>
       </c>
       <c r="O25">
-        <v>3.853125429896664</v>
+        <v>2.352281933586141</v>
       </c>
     </row>
   </sheetData>
